--- a/biology/Zoologie/Dinomyidae/Dinomyidae.xlsx
+++ b/biology/Zoologie/Dinomyidae/Dinomyidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Dinomyidae forment une famille de rongeurs presque tous disparus, hormis une seule espèce : le pacarana, un gros rongeur de la Cordillère des Andes, en danger d'extinction[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Dinomyidae forment une famille de rongeurs presque tous disparus, hormis une seule espèce : le pacarana, un gros rongeur de la Cordillère des Andes, en danger d'extinction.
 </t>
         </is>
       </c>
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Genre et espèce actuels
-Selon Mammal Species of the World (version 3, 2005)  (17 septembre 2013)[2], ITIS      (17 septembre 2013)[3], Catalogue of Life                                   (17 septembre 2013)[4] et NCBI  (17 septembre 2013)[5] :
+          <t>Genre et espèce actuels</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Mammal Species of the World (version 3, 2005)  (17 septembre 2013), ITIS      (17 septembre 2013), Catalogue of Life                                   (17 septembre 2013) et NCBI  (17 septembre 2013) :
 genre Dinomys Peters, 1873
 Dinomys branickii Peters, 1873  —  le pacarana
-Liste des sous-familles et genres passés ou actuels
-Selon Paleobiology Database                   (17 septembre 2013)[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dinomyidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinomyidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de taxons</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles et genres passés ou actuels</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (17 septembre 2013) :
 genre Branisamys
 genre Briaromys
 genre Carlesia
